--- a/class_schedules_spring_2018/JEWISH STUDIES (JWST).xlsx
+++ b/class_schedules_spring_2018/JEWISH STUDIES (JWST).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>151</t>
   </si>
@@ -31,12 +31,18 @@
     <t>995F</t>
   </si>
   <si>
+    <t>995</t>
+  </si>
+  <si>
     <t>995H</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>19079</t>
   </si>
   <si>
@@ -52,9 +58,15 @@
     <t>16626</t>
   </si>
   <si>
+    <t>19237</t>
+  </si>
+  <si>
     <t>16623</t>
   </si>
   <si>
+    <t>19238</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -64,30 +76,48 @@
     <t>F</t>
   </si>
   <si>
-    <t>Modern Jewish Thought TR</t>
-  </si>
-  <si>
-    <t>New Testmnt/Christian Origins MWF</t>
-  </si>
-  <si>
-    <t>Jewish Emancipation MWF</t>
-  </si>
-  <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>0930-1050am</t>
-  </si>
-  <si>
-    <t>0900-0950am</t>
-  </si>
-  <si>
-    <t>0330-0420pm</t>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>Modern Jewish Thought</t>
+  </si>
+  <si>
+    <t>New Testmnt/Christian Origins</t>
+  </si>
+  <si>
+    <t>Jewish Emancipation</t>
   </si>
   <si>
     <t>Honors</t>
   </si>
   <si>
+    <t>Private Reading</t>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>0330</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0950am</t>
+  </si>
+  <si>
+    <t>0420pm</t>
+  </si>
+  <si>
     <t>Full</t>
   </si>
   <si>
@@ -103,7 +133,7 @@
     <t>SCTR</t>
   </si>
   <si>
-    <t>TBA</t>
+    <t>Staff A&amp;S</t>
   </si>
   <si>
     <t>128</t>
@@ -122,9 +152,6 @@
   </si>
   <si>
     <t>Herron Laura</t>
-  </si>
-  <si>
-    <t>Staff A&amp;S</t>
   </si>
 </sst>
 </file>
@@ -482,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -519,8 +546,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -528,34 +561,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -563,34 +602,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -598,34 +643,40 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -633,31 +684,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -665,34 +716,34 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -700,31 +751,101 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
